--- a/biology/Zoologie/Amphilophus_citrinellus/Amphilophus_citrinellus.xlsx
+++ b/biology/Zoologie/Amphilophus_citrinellus/Amphilophus_citrinellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Citrinellum (Amphilophus citrinellus) est un poisson appartenant à la famille des Cichlidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Citrinellum est l'un des plus grands membres de la famille des Cichlidae d'Amérique centrale. Sa couleur naturelle est grisâtre, parfois blanche ou rouge, mais le jaune citron est la forme la plus courante en captivité. Le mâle adulte développe une bosse frontale et est souvent plus grand que la femelle.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un poisson d'eau douce que l'on trouve en sur la façade est de l'Amérique centrale. On le trouve au Nicaragua et au Costa Rica, dans le cours du San Juan, ainsi que dans les lacs Nicaragua, Managua, de Masaya et d'Apoyo[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un poisson d'eau douce que l'on trouve en sur la façade est de l'Amérique centrale. On le trouve au Nicaragua et au Costa Rica, dans le cours du San Juan, ainsi que dans les lacs Nicaragua, Managua, de Masaya et d'Apoyo.
 </t>
         </is>
       </c>
@@ -575,10 +591,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Il est important de prévoir une filtration importante car le citrinellum est un gros pollueur. Il s'adapte bien avec des espèces de grandes tailles issues d'Amérique centrale.
-Reproduction
-Le citrinellum est un pondeur sur substrat découvert. Le couple nettoie le site de ponte avant d'y déposer une centaine d'œufs fécondés. Le mâle surveille le site de ponte tandis que la femelle s'occupe de sa progéniture. Les petits sont grisâtres et ne prennent leur coloration que plus tard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amphilophus_citrinellus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphilophus_citrinellus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maintenance en captivité[2]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le citrinellum est un pondeur sur substrat découvert. Le couple nettoie le site de ponte avant d'y déposer une centaine d'œufs fécondés. Le mâle surveille le site de ponte tandis que la femelle s'occupe de sa progéniture. Les petits sont grisâtres et ne prennent leur coloration que plus tard.
 </t>
         </is>
       </c>
